--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Multi-Modal Comm" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T15:55:03-04:00</t>
+    <t>2022-03-24T15:01:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +113,54 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pacio-splasch/CodeSystem/SPLASCHMultiModalCommunicationObservationCS</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>99829-4</t>
+  </si>
+  <si>
+    <t>How often does the individual convey simple messages that are meaningful related to routine daily activities in LOW demand situations?</t>
+  </si>
+  <si>
+    <t>99830-2</t>
+  </si>
+  <si>
+    <t>How often does the individual participate in short structured conversations that are meaningful in LOW demand situations?</t>
+  </si>
+  <si>
+    <t>99831-0</t>
+  </si>
+  <si>
+    <t>How often does the individual convey complex messages that are meaningful in LOW demand situations?</t>
+  </si>
+  <si>
+    <t>99832-8</t>
+  </si>
+  <si>
+    <t>How often does the individual convey simple messages that are meaningful related to routine daily activities in HIGH demand situations?</t>
+  </si>
+  <si>
+    <t>99833-6</t>
+  </si>
+  <si>
+    <t>How often does the individual participate in short structured conversations that are meaningful in HIGH demand situations?</t>
+  </si>
+  <si>
+    <t>99834-4</t>
+  </si>
+  <si>
+    <t>How often does the individual convey complex messages that are meaningful in HIGH demand situations?</t>
+  </si>
+  <si>
+    <t>99835-1</t>
+  </si>
+  <si>
+    <t>Functional Communication Measure - Multi-Modal Functional Communication score [ASHA NOMS]</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -425,4 +474,101 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T15:01:17-04:00</t>
+    <t>2022-03-24T23:37:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:37:25-04:00</t>
+    <t>2022-03-26T00:24:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T00:24:52-04:00</t>
+    <t>2022-03-28T21:41:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T21:41:27-04:00</t>
+    <t>2022-03-29T12:50:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:50:12-04:00</t>
+    <t>2022-03-29T14:17:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Multi-Modal Comm" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:17:18-04:00</t>
+    <t>2022-04-05T11:13:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -113,54 +112,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pacio-splasch/CodeSystem/SPLASCHMultiModalCommunicationObservationCS</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>99829-4</t>
-  </si>
-  <si>
-    <t>How often does the individual convey simple messages that are meaningful related to routine daily activities in LOW demand situations?</t>
-  </si>
-  <si>
-    <t>99830-2</t>
-  </si>
-  <si>
-    <t>How often does the individual participate in short structured conversations that are meaningful in LOW demand situations?</t>
-  </si>
-  <si>
-    <t>99831-0</t>
-  </si>
-  <si>
-    <t>How often does the individual convey complex messages that are meaningful in LOW demand situations?</t>
-  </si>
-  <si>
-    <t>99832-8</t>
-  </si>
-  <si>
-    <t>How often does the individual convey simple messages that are meaningful related to routine daily activities in HIGH demand situations?</t>
-  </si>
-  <si>
-    <t>99833-6</t>
-  </si>
-  <si>
-    <t>How often does the individual participate in short structured conversations that are meaningful in HIGH demand situations?</t>
-  </si>
-  <si>
-    <t>99834-4</t>
-  </si>
-  <si>
-    <t>How often does the individual convey complex messages that are meaningful in HIGH demand situations?</t>
-  </si>
-  <si>
-    <t>99835-1</t>
-  </si>
-  <si>
-    <t>Functional Communication Measure - Multi-Modal Functional Communication score [ASHA NOMS]</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -474,101 +425,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T11:13:11-04:00</t>
+    <t>2022-04-05T12:11:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T12:11:10-04:00</t>
+    <t>2022-04-15T08:42:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T08:42:50-04:00</t>
+    <t>2022-04-15T09:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T09:25:37-04:00</t>
+    <t>2022-04-15T12:12:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:12:07-04:00</t>
+    <t>2022-04-18T11:35:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T11:35:28-04:00</t>
+    <t>2022-04-18T14:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:57:29-04:00</t>
+    <t>2022-04-27T11:54:23-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T11:54:23-04:00</t>
+    <t>2022-04-29T14:30:00-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T14:30:00-04:00</t>
+    <t>2022-05-03T12:45:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:45:05-04:00</t>
+    <t>2022-05-03T15:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:05:17-04:00</t>
+    <t>2022-05-04T09:54:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
+++ b/ValueSet-SPLASCHMultiModalCommunicationObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T09:54:10-04:00</t>
+    <t>2022-05-04T12:01:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
